--- a/backend/data_extractor/courselist.xlsx
+++ b/backend/data_extractor/courselist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wayne/Desktop/comp9900/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wayne/Desktop/comp9900/capstone-project-whatbot/backend/data_extractor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA0BE35-E7C1-BE4C-8230-4A0C44F28B45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EC7C3D-0478-8444-94DF-34ABF7D5ED6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16600" windowHeight="18000" xr2:uid="{57F33ED5-4AC7-1543-9A9E-73AEF44BDF3A}"/>
+    <workbookView xWindow="1760" yWindow="460" windowWidth="16600" windowHeight="17460" xr2:uid="{57F33ED5-4AC7-1543-9A9E-73AEF44BDF3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -597,9 +597,6 @@
     <t>http://timetable.unsw.edu.au/2019/COMP6445.html</t>
   </si>
   <si>
-    <t>Digital Forensics	X</t>
-  </si>
-  <si>
     <t>COMP6447</t>
   </si>
   <si>
@@ -973,6 +970,9 @@
   </si>
   <si>
     <t>TELE9754</t>
+  </si>
+  <si>
+    <t>Digital Forensics</t>
   </si>
 </sst>
 </file>
@@ -1345,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF8C50C-FCB7-0E43-89A3-BA0135E2F925}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2094,7 +2094,7 @@
         <v>187</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>313</v>
       </c>
       <c r="D61" t="s">
         <v>53</v>
@@ -2102,13 +2102,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" t="s">
         <v>190</v>
-      </c>
-      <c r="C62" t="s">
-        <v>191</v>
       </c>
       <c r="D62" t="s">
         <v>53</v>
@@ -2116,52 +2116,52 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" t="s">
         <v>193</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E63" t="s">
         <v>194</v>
-      </c>
-      <c r="D63" t="s">
-        <v>53</v>
-      </c>
-      <c r="E63" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" t="s">
         <v>197</v>
-      </c>
-      <c r="C64" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>198</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" t="s">
         <v>200</v>
-      </c>
-      <c r="C65" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" t="s">
         <v>203</v>
-      </c>
-      <c r="C66" t="s">
-        <v>204</v>
       </c>
       <c r="D66" t="s">
         <v>53</v>
@@ -2169,13 +2169,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>204</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" t="s">
         <v>206</v>
-      </c>
-      <c r="C67" t="s">
-        <v>207</v>
       </c>
       <c r="D67" t="s">
         <v>53</v>
@@ -2183,13 +2183,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" t="s">
         <v>208</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>209</v>
-      </c>
-      <c r="C68" t="s">
-        <v>210</v>
       </c>
       <c r="D68" t="s">
         <v>53</v>
@@ -2197,13 +2197,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" t="s">
         <v>212</v>
-      </c>
-      <c r="C69" t="s">
-        <v>213</v>
       </c>
       <c r="D69" t="s">
         <v>53</v>
@@ -2211,13 +2211,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>213</v>
+      </c>
+      <c r="B70" t="s">
         <v>214</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>215</v>
-      </c>
-      <c r="C70" t="s">
-        <v>216</v>
       </c>
       <c r="D70" t="s">
         <v>53</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" t="s">
         <v>217</v>
-      </c>
-      <c r="C71" t="s">
-        <v>218</v>
       </c>
       <c r="D71" t="s">
         <v>53</v>
@@ -2236,10 +2236,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" t="s">
         <v>219</v>
-      </c>
-      <c r="C72" t="s">
-        <v>220</v>
       </c>
       <c r="D72" t="s">
         <v>53</v>
@@ -2247,10 +2247,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>220</v>
+      </c>
+      <c r="C73" t="s">
         <v>221</v>
-      </c>
-      <c r="C73" t="s">
-        <v>222</v>
       </c>
       <c r="D73" t="s">
         <v>53</v>
@@ -2258,38 +2258,38 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>222</v>
+      </c>
+      <c r="B74" t="s">
         <v>223</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>224</v>
-      </c>
-      <c r="C74" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>225</v>
+      </c>
+      <c r="B75" t="s">
         <v>226</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>227</v>
       </c>
-      <c r="C75" t="s">
+      <c r="E75" t="s">
         <v>228</v>
-      </c>
-      <c r="E75" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>229</v>
+      </c>
+      <c r="B76" t="s">
         <v>230</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>231</v>
-      </c>
-      <c r="C76" t="s">
-        <v>232</v>
       </c>
       <c r="D76" t="s">
         <v>53</v>
@@ -2297,24 +2297,24 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>232</v>
+      </c>
+      <c r="B77" t="s">
         <v>233</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>234</v>
-      </c>
-      <c r="C77" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78" t="s">
         <v>236</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>237</v>
-      </c>
-      <c r="C78" t="s">
-        <v>238</v>
       </c>
       <c r="D78" t="s">
         <v>53</v>
@@ -2322,35 +2322,35 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>238</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" t="s">
         <v>240</v>
-      </c>
-      <c r="C79" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>241</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" t="s">
         <v>243</v>
-      </c>
-      <c r="C80" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>244</v>
+      </c>
+      <c r="B81" t="s">
         <v>245</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>246</v>
-      </c>
-      <c r="C81" t="s">
-        <v>247</v>
       </c>
       <c r="D81" t="s">
         <v>53</v>
@@ -2358,24 +2358,24 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>247</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" t="s">
         <v>249</v>
-      </c>
-      <c r="C82" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>250</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" t="s">
         <v>252</v>
-      </c>
-      <c r="C83" t="s">
-        <v>253</v>
       </c>
       <c r="D83" t="s">
         <v>53</v>
@@ -2383,13 +2383,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C84" t="s">
         <v>256</v>
-      </c>
-      <c r="C84" t="s">
-        <v>257</v>
       </c>
       <c r="D84" t="s">
         <v>53</v>
@@ -2397,211 +2397,211 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>257</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C85" t="s">
         <v>258</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C85" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>259</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>262</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="C87" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>264</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" t="s">
         <v>266</v>
-      </c>
-      <c r="C88" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>267</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" t="s">
         <v>269</v>
-      </c>
-      <c r="C89" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>270</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" t="s">
         <v>272</v>
-      </c>
-      <c r="C90" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>273</v>
+      </c>
+      <c r="B91" t="s">
         <v>274</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>275</v>
-      </c>
-      <c r="C91" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>276</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" t="s">
         <v>278</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E92" t="s">
         <v>279</v>
-      </c>
-      <c r="E92" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>280</v>
+      </c>
+      <c r="B93" t="s">
         <v>281</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>282</v>
-      </c>
-      <c r="C93" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C94" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C95" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C96" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C97" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C98" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B99" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C99" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C100" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C101" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B102" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C103" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
